--- a/01_Input/00_CO Validation/Cambodia - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Cambodia - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="213" documentId="11_AD04AE8A055023D36E38A48FC26D0923506F29C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{718C7F3F-C05B-4B7D-8FF0-0AF49F168803}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="11_AD04AE8A055023D36E38A48FC26D0923506F29C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAD8243C-7684-4139-9BA8-F07CB4E6204F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -484,7 +487,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -499,18 +502,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -526,31 +517,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -860,26 +851,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818987AF-5855-4584-9105-61CDFE2C0E46}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A3:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="28"/>
-    <col min="2" max="2" width="55" style="28" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="28"/>
-    <col min="5" max="5" width="20.7109375" style="28" customWidth="1"/>
-    <col min="6" max="6" width="87.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" style="28" customWidth="1"/>
-    <col min="10" max="10" width="101" style="28" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="28"/>
-    <col min="12" max="12" width="9.140625" style="28" customWidth="1"/>
-    <col min="13" max="16" width="9.140625" style="28"/>
-    <col min="17" max="17" width="27" style="28" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="55" style="24" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="24"/>
+    <col min="5" max="5" width="20.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="87.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="101" style="24" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="24"/>
+    <col min="12" max="12" width="9.140625" style="24" customWidth="1"/>
+    <col min="13" max="16" width="9.140625" style="24"/>
+    <col min="17" max="17" width="27" style="24" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
@@ -946,23 +937,23 @@
       <c r="B2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="23">
         <v>14955773</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23">
         <v>7959</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="23"/>
@@ -983,20 +974,20 @@
     <row r="3" spans="1:19">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="23"/>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25">
+      <c r="G3" s="23"/>
+      <c r="H3" s="23">
         <f>635.83/1000</f>
         <v>0.63583000000000001</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="23"/>
@@ -1013,20 +1004,20 @@
     <row r="4" spans="1:19" ht="60.75">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23">
         <f>17*5+168</f>
         <v>253</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="23"/>
@@ -1043,19 +1034,19 @@
     <row r="5" spans="1:19" ht="30.75">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="23"/>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <v>1</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="23" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="23"/>
@@ -1069,28 +1060,28 @@
       <c r="R5" s="23"/>
       <c r="S5" s="23"/>
     </row>
-    <row r="6" spans="1:19" s="29" customFormat="1" ht="45.75">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26" t="s">
+    <row r="6" spans="1:19" ht="45.75">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <v>4</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
@@ -1098,28 +1089,28 @@
       <c r="R6" s="23"/>
       <c r="S6" s="23"/>
     </row>
-    <row r="7" spans="1:19" s="29" customFormat="1" ht="45.75">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26" t="s">
+    <row r="7" spans="1:19" ht="45.75">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26">
+      <c r="G7" s="23"/>
+      <c r="H7" s="23">
         <v>3</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
@@ -1134,23 +1125,23 @@
       <c r="B8" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="23">
         <v>2230822</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="23" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="23"/>
@@ -1171,19 +1162,19 @@
     <row r="9" spans="1:19" ht="45.75">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="23"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="23" t="s">
         <v>47</v>
       </c>
       <c r="J9" s="23"/>
@@ -1200,19 +1191,19 @@
     <row r="10" spans="1:19" ht="30.75">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25">
+      <c r="G10" s="23"/>
+      <c r="H10" s="23">
         <v>164</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="23" t="s">
         <v>48</v>
       </c>
       <c r="J10" s="23"/>
@@ -1226,28 +1217,28 @@
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
     </row>
-    <row r="11" spans="1:19" s="29" customFormat="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26" t="s">
+    <row r="11" spans="1:19">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26">
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
         <v>4</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
       <c r="P11" s="23"/>
@@ -1262,23 +1253,23 @@
       <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="23">
         <v>9032048</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25">
+      <c r="G12" s="23"/>
+      <c r="H12" s="23">
         <v>723</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="23" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="23"/>
@@ -1297,17 +1288,17 @@
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="23" t="s">
         <v>56</v>
       </c>
       <c r="J13" s="23"/>
@@ -1330,17 +1321,17 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
         <v>246</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="23" t="s">
         <v>57</v>
       </c>
       <c r="J14" s="23"/>
@@ -1359,17 +1350,17 @@
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23">
         <v>1152</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="23" t="s">
         <v>60</v>
       </c>
       <c r="J15" s="23"/>
@@ -1388,17 +1379,17 @@
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
         <v>1248</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="23" t="s">
         <v>63</v>
       </c>
       <c r="J16" s="23"/>
@@ -1417,17 +1408,17 @@
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25">
+      <c r="G17" s="23"/>
+      <c r="H17" s="23">
         <v>1</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="23" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="23"/>
@@ -1454,17 +1445,17 @@
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25">
+      <c r="G18" s="23"/>
+      <c r="H18" s="23">
         <v>1286</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="23" t="s">
         <v>71</v>
       </c>
       <c r="J18" s="23"/>
@@ -1482,28 +1473,28 @@
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
     </row>
-    <row r="19" spans="1:19" s="29" customFormat="1" ht="30.75">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26" t="s">
+    <row r="19" spans="1:19" ht="30.75">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23">
         <v>139</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -1573,648 +1564,648 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="14"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="14"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="14">
+      <c r="A2" s="10">
         <v>114485</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>14955773</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
         <v>7959</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="16" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12">
         <f>635.83/1000</f>
         <v>0.63583000000000001</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
         <f>17*5+168</f>
         <v>253</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="16" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="7" customFormat="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
         <v>4</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="7" customFormat="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
         <v>3</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="14">
+      <c r="A8" s="10">
         <v>144124</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>2230822</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12">
         <v>0.27100000000000002</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="16" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
         <v>164</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="7" customFormat="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
+      <c r="G11" s="13"/>
+      <c r="H11" s="13">
         <v>4</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="14">
+      <c r="A12" s="10">
         <v>118895</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="10">
         <v>9032048</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16">
+      <c r="G12" s="12"/>
+      <c r="H12" s="12">
         <v>723</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="16" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16">
+      <c r="G13" s="12"/>
+      <c r="H13" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="16" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16">
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
         <v>246</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="16" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12">
         <v>1152</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="16" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12">
         <v>1248</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="16" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16">
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
         <v>1</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14" t="s">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="14" t="s">
+      <c r="P17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14" t="s">
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="S17" s="14" t="s">
+      <c r="S17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="T17" s="14"/>
+      <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="16" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16">
+      <c r="G18" s="12"/>
+      <c r="H18" s="12">
         <v>1286</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14" t="s">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
     </row>
     <row r="19" spans="1:20" s="7" customFormat="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17">
+      <c r="G19" s="13"/>
+      <c r="H19" s="13">
         <v>139</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2688,7 +2679,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B2" t="s">
@@ -2699,7 +2690,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="8"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -2708,7 +2699,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>69</v>
       </c>
@@ -2717,7 +2708,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="18" t="s">
         <v>80</v>
       </c>
       <c r="B5" t="s">
@@ -2728,7 +2719,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>82</v>
       </c>
@@ -2737,7 +2728,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>61</v>
       </c>
@@ -2746,7 +2737,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>85</v>
       </c>
@@ -2755,7 +2746,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>34</v>
       </c>
@@ -2764,7 +2755,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B10" t="s">
@@ -2775,7 +2766,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>76</v>
       </c>
@@ -2784,7 +2775,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="20" t="s">
         <v>91</v>
       </c>
       <c r="B12" t="s">
@@ -2795,7 +2786,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11"/>
+      <c r="A13" s="20"/>
       <c r="B13" t="s">
         <v>92</v>
       </c>
@@ -2804,7 +2795,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>58</v>
       </c>
@@ -2855,6 +2846,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3103,25 +3105,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BBC2B52-D412-4BCB-960D-5A9B79B8D098}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB0043DE-E1AF-47F1-9B72-BF19680D3BDC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6035F31-9FC3-4A49-BBAF-3D5D9231EA2E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6035F31-9FC3-4A49-BBAF-3D5D9231EA2E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB0043DE-E1AF-47F1-9B72-BF19680D3BDC}"/>
 </file>